--- a/Trash sorter list.xlsx
+++ b/Trash sorter list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esh/Desktop/trash project/trash-sorting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B18E9A9B-8398-F446-9667-3768C42B9469}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75FCA442-1267-6B4D-B98A-9AC970B76586}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="440" windowWidth="17680" windowHeight="12580" tabRatio="272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -142,15 +142,9 @@
     <t>Roll of tape</t>
   </si>
   <si>
-    <t>Strainer: recycling</t>
-  </si>
-  <si>
     <t>Eraser without paper cover</t>
   </si>
   <si>
-    <t>recycling</t>
-  </si>
-  <si>
     <t>Syringe</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>cut fruit</t>
   </si>
   <si>
-    <t>compost</t>
-  </si>
-  <si>
     <t>seeds</t>
   </si>
   <si>
@@ -187,10 +178,16 @@
     <t>Tiny scraps of plastic</t>
   </si>
   <si>
-    <t>pills - recycling</t>
-  </si>
-  <si>
     <t>Plastic food toy</t>
+  </si>
+  <si>
+    <t>Not recognized</t>
+  </si>
+  <si>
+    <t>Compost-  recognized as 'leftover'</t>
+  </si>
+  <si>
+    <t>compost if only big chunks are given</t>
   </si>
 </sst>
 </file>
@@ -793,7 +790,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -914,7 +911,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
@@ -922,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
@@ -933,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>33</v>
@@ -944,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>33</v>
@@ -955,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -966,10 +963,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
@@ -977,21 +974,21 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="24" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
@@ -999,10 +996,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -1010,10 +1007,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
@@ -1021,7 +1018,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>33</v>
@@ -1032,10 +1029,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -1043,10 +1040,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
